--- a/extras/sample-form/Sample form - Create Google Calendar event field plug-in (basic).xlsx
+++ b/extras/sample-form/Sample form - Create Google Calendar event field plug-in (basic).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acooper/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\create-google-event\extras\sample-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFCFCF-B3BB-764F-B3FA-F2D598607999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7A7F5-FCCA-4E69-8D21-7DBA28BB1A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24220" yWindow="6060" windowWidth="25000" windowHeight="15540" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="help-choices" sheetId="5" r:id="rId5"/>
     <sheet name="help-settings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2600,9 +2600,6 @@
     <t>Sample form - Create Google Calendar event field plug-in</t>
   </si>
   <si>
-    <t>google_calendar_plug-in_sample</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -2836,12 +2833,15 @@
 &lt;p&gt;&amp;nbsp;&lt;/p&gt;
 &lt;p&gt;Select &lt;em&gt;Next&lt;/em&gt; to continue.&lt;/p&gt;</t>
   </si>
+  <si>
+    <t>google_calendar_plug-in_sample_test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -5023,34 +5023,34 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="29" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.84765625" style="9" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.1484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6484375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.34765625" style="9" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6484375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.1484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.34765625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.1484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.34765625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="13.1484375" style="9" customWidth="1"/>
     <col min="16" max="16" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6484375" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="9" customWidth="1"/>
     <col min="20" max="21" width="48" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.84765625" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="9" t="s">
         <v>305</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="9" t="s">
         <v>148</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="9" t="s">
         <v>301</v>
       </c>
@@ -5212,80 +5212,80 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="29.05" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="31.2">
       <c r="A14" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>439</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -5441,16 +5441,16 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="15" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="15"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="19.6484375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="39.6484375" style="15" customWidth="1"/>
+    <col min="4" max="5" width="10.84765625" style="15"/>
+    <col min="6" max="16384" width="10.84765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
@@ -5489,395 +5489,395 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" s="15" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C10" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="B34" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B36" s="15" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B37" s="15" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B38" s="15" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B39" s="15" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C40" s="15" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="15" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5908,19 +5908,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.84765625" customWidth="1"/>
+    <col min="3" max="3" width="13.34765625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -5941,22 +5943,22 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>367</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007071600</v>
+        <v>2007091800</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>29</v>
@@ -5977,36 +5979,36 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="36" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="36" style="21" customWidth="1" collapsed="1"/>
     <col min="4" max="30" width="36" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="32"/>
     </row>
-    <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="33" customFormat="1">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:30" s="33" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="33" customFormat="1" ht="97" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="33" customFormat="1">
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="39" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="39" customFormat="1" ht="187.2">
       <c r="A6" s="38" t="s">
         <v>277</v>
       </c>
@@ -6190,10 +6192,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="33" customFormat="1">
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="42" customFormat="1">
       <c r="A8" s="59" t="s">
         <v>276</v>
       </c>
@@ -6227,10 +6229,10 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="33" customFormat="1">
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="45" customFormat="1">
       <c r="A10" s="43" t="s">
         <v>96</v>
       </c>
@@ -6268,7 +6270,7 @@
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
     </row>
-    <row r="11" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="45" customFormat="1">
       <c r="A11" s="43" t="s">
         <v>96</v>
       </c>
@@ -6308,7 +6310,7 @@
       <c r="AC11" s="43"/>
       <c r="AD11" s="43"/>
     </row>
-    <row r="12" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="45" customFormat="1">
       <c r="A12" s="43" t="s">
         <v>100</v>
       </c>
@@ -6346,7 +6348,7 @@
       <c r="AC12" s="43"/>
       <c r="AD12" s="43"/>
     </row>
-    <row r="13" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="45" customFormat="1">
       <c r="A13" s="43" t="s">
         <v>101</v>
       </c>
@@ -6384,7 +6386,7 @@
       <c r="AC13" s="43"/>
       <c r="AD13" s="43"/>
     </row>
-    <row r="14" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A14" s="43" t="s">
         <v>102</v>
       </c>
@@ -6422,7 +6424,7 @@
       <c r="AC14" s="43"/>
       <c r="AD14" s="43"/>
     </row>
-    <row r="15" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A15" s="43" t="s">
         <v>102</v>
       </c>
@@ -6462,7 +6464,7 @@
       <c r="AC15" s="43"/>
       <c r="AD15" s="43"/>
     </row>
-    <row r="16" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A16" s="43" t="s">
         <v>102</v>
       </c>
@@ -6502,7 +6504,7 @@
       <c r="AC16" s="43"/>
       <c r="AD16" s="43"/>
     </row>
-    <row r="17" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A17" s="43" t="s">
         <v>102</v>
       </c>
@@ -6542,7 +6544,7 @@
       <c r="AC17" s="43"/>
       <c r="AD17" s="43"/>
     </row>
-    <row r="18" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A18" s="43" t="s">
         <v>102</v>
       </c>
@@ -6582,7 +6584,7 @@
       <c r="AC18" s="43"/>
       <c r="AD18" s="43"/>
     </row>
-    <row r="19" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A19" s="43" t="s">
         <v>102</v>
       </c>
@@ -6622,7 +6624,7 @@
       <c r="AC19" s="43"/>
       <c r="AD19" s="43"/>
     </row>
-    <row r="20" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A20" s="43" t="s">
         <v>102</v>
       </c>
@@ -6662,7 +6664,7 @@
       <c r="AC20" s="43"/>
       <c r="AD20" s="43"/>
     </row>
-    <row r="21" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A21" s="43" t="s">
         <v>102</v>
       </c>
@@ -6702,7 +6704,7 @@
       <c r="AC21" s="43"/>
       <c r="AD21" s="43"/>
     </row>
-    <row r="22" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A22" s="43" t="s">
         <v>102</v>
       </c>
@@ -6742,7 +6744,7 @@
       <c r="AC22" s="43"/>
       <c r="AD22" s="43"/>
     </row>
-    <row r="23" spans="1:30" s="45" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="45" customFormat="1" ht="78">
       <c r="A23" s="43" t="s">
         <v>102</v>
       </c>
@@ -6782,7 +6784,7 @@
       <c r="AC23" s="43"/>
       <c r="AD23" s="43"/>
     </row>
-    <row r="24" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A24" s="43" t="s">
         <v>102</v>
       </c>
@@ -6822,7 +6824,7 @@
       <c r="AC24" s="43"/>
       <c r="AD24" s="43"/>
     </row>
-    <row r="25" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A25" s="43" t="s">
         <v>102</v>
       </c>
@@ -6862,7 +6864,7 @@
       <c r="AC25" s="43"/>
       <c r="AD25" s="43"/>
     </row>
-    <row r="26" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A26" s="43" t="s">
         <v>102</v>
       </c>
@@ -6902,7 +6904,7 @@
       <c r="AC26" s="43"/>
       <c r="AD26" s="43"/>
     </row>
-    <row r="27" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A27" s="43" t="s">
         <v>102</v>
       </c>
@@ -6942,7 +6944,7 @@
       <c r="AC27" s="43"/>
       <c r="AD27" s="43"/>
     </row>
-    <row r="28" spans="1:30" s="45" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="45" customFormat="1" ht="78">
       <c r="A28" s="43" t="s">
         <v>102</v>
       </c>
@@ -6982,7 +6984,7 @@
       <c r="AC28" s="43"/>
       <c r="AD28" s="43"/>
     </row>
-    <row r="29" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A29" s="43" t="s">
         <v>112</v>
       </c>
@@ -7020,7 +7022,7 @@
       <c r="AC29" s="43"/>
       <c r="AD29" s="43"/>
     </row>
-    <row r="30" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A30" s="43" t="s">
         <v>112</v>
       </c>
@@ -7060,7 +7062,7 @@
       <c r="AC30" s="43"/>
       <c r="AD30" s="43"/>
     </row>
-    <row r="31" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A31" s="43" t="s">
         <v>112</v>
       </c>
@@ -7100,7 +7102,7 @@
       <c r="AC31" s="43"/>
       <c r="AD31" s="43"/>
     </row>
-    <row r="32" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="45" customFormat="1" ht="46.8">
       <c r="A32" s="43" t="s">
         <v>112</v>
       </c>
@@ -7140,7 +7142,7 @@
       <c r="AC32" s="43"/>
       <c r="AD32" s="43"/>
     </row>
-    <row r="33" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A33" s="43" t="s">
         <v>112</v>
       </c>
@@ -7180,7 +7182,7 @@
       <c r="AC33" s="43"/>
       <c r="AD33" s="43"/>
     </row>
-    <row r="34" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A34" s="43" t="s">
         <v>112</v>
       </c>
@@ -7220,7 +7222,7 @@
       <c r="AC34" s="43"/>
       <c r="AD34" s="43"/>
     </row>
-    <row r="35" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A35" s="43" t="s">
         <v>112</v>
       </c>
@@ -7260,7 +7262,7 @@
       <c r="AC35" s="43"/>
       <c r="AD35" s="43"/>
     </row>
-    <row r="36" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" s="45" customFormat="1" ht="62.4">
       <c r="A36" s="43" t="s">
         <v>112</v>
       </c>
@@ -7300,7 +7302,7 @@
       <c r="AC36" s="43"/>
       <c r="AD36" s="43"/>
     </row>
-    <row r="37" spans="1:30" s="45" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" s="45" customFormat="1" ht="78">
       <c r="A37" s="43" t="s">
         <v>112</v>
       </c>
@@ -7340,7 +7342,7 @@
       <c r="AC37" s="43"/>
       <c r="AD37" s="43"/>
     </row>
-    <row r="38" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" s="45" customFormat="1">
       <c r="A38" s="43" t="s">
         <v>114</v>
       </c>
@@ -7378,7 +7380,7 @@
       <c r="AC38" s="43"/>
       <c r="AD38" s="43"/>
     </row>
-    <row r="39" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" s="45" customFormat="1">
       <c r="A39" s="43" t="s">
         <v>315</v>
       </c>
@@ -7416,7 +7418,7 @@
       <c r="AC39" s="43"/>
       <c r="AD39" s="43"/>
     </row>
-    <row r="40" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A40" s="43" t="s">
         <v>317</v>
       </c>
@@ -7454,7 +7456,7 @@
       <c r="AC40" s="43"/>
       <c r="AD40" s="43"/>
     </row>
-    <row r="41" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" s="45" customFormat="1">
       <c r="A41" s="43" t="s">
         <v>115</v>
       </c>
@@ -7492,7 +7494,7 @@
       <c r="AC41" s="43"/>
       <c r="AD41" s="43"/>
     </row>
-    <row r="42" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" s="45" customFormat="1">
       <c r="A42" s="43" t="s">
         <v>118</v>
       </c>
@@ -7530,7 +7532,7 @@
       <c r="AC42" s="43"/>
       <c r="AD42" s="43"/>
     </row>
-    <row r="43" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" s="45" customFormat="1">
       <c r="A43" s="43" t="s">
         <v>118</v>
       </c>
@@ -7570,7 +7572,7 @@
       <c r="AC43" s="43"/>
       <c r="AD43" s="43"/>
     </row>
-    <row r="44" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" s="45" customFormat="1">
       <c r="A44" s="43" t="s">
         <v>132</v>
       </c>
@@ -7608,7 +7610,7 @@
       <c r="AC44" s="43"/>
       <c r="AD44" s="43"/>
     </row>
-    <row r="45" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" s="45" customFormat="1">
       <c r="A45" s="43" t="s">
         <v>132</v>
       </c>
@@ -7648,7 +7650,7 @@
       <c r="AC45" s="43"/>
       <c r="AD45" s="43"/>
     </row>
-    <row r="46" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" s="45" customFormat="1">
       <c r="A46" s="43" t="s">
         <v>27</v>
       </c>
@@ -7686,7 +7688,7 @@
       <c r="AC46" s="43"/>
       <c r="AD46" s="43"/>
     </row>
-    <row r="47" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A47" s="43" t="s">
         <v>27</v>
       </c>
@@ -7726,7 +7728,7 @@
       <c r="AC47" s="43"/>
       <c r="AD47" s="43"/>
     </row>
-    <row r="48" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A48" s="43" t="s">
         <v>27</v>
       </c>
@@ -7766,7 +7768,7 @@
       <c r="AC48" s="43"/>
       <c r="AD48" s="43"/>
     </row>
-    <row r="49" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A49" s="43" t="s">
         <v>27</v>
       </c>
@@ -7806,7 +7808,7 @@
       <c r="AC49" s="43"/>
       <c r="AD49" s="43"/>
     </row>
-    <row r="50" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="45" customFormat="1">
       <c r="A50" s="43" t="s">
         <v>142</v>
       </c>
@@ -7844,7 +7846,7 @@
       <c r="AC50" s="43"/>
       <c r="AD50" s="43"/>
     </row>
-    <row r="51" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="45" customFormat="1">
       <c r="A51" s="43" t="s">
         <v>144</v>
       </c>
@@ -7882,7 +7884,7 @@
       <c r="AC51" s="43"/>
       <c r="AD51" s="43"/>
     </row>
-    <row r="52" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="45" customFormat="1" ht="31.2">
       <c r="A52" s="43" t="s">
         <v>307</v>
       </c>
@@ -7920,7 +7922,7 @@
       <c r="AC52" s="43"/>
       <c r="AD52" s="43"/>
     </row>
-    <row r="53" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" s="45" customFormat="1">
       <c r="A53" s="43" t="s">
         <v>42</v>
       </c>
@@ -7958,7 +7960,7 @@
       <c r="AC53" s="43"/>
       <c r="AD53" s="43"/>
     </row>
-    <row r="54" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" s="45" customFormat="1">
       <c r="A54" s="43" t="s">
         <v>33</v>
       </c>
@@ -7994,7 +7996,7 @@
       <c r="AC54" s="43"/>
       <c r="AD54" s="43"/>
     </row>
-    <row r="55" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" s="45" customFormat="1">
       <c r="A55" s="43" t="s">
         <v>34</v>
       </c>
@@ -8030,7 +8032,7 @@
       <c r="AC55" s="43"/>
       <c r="AD55" s="43"/>
     </row>
-    <row r="56" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" s="45" customFormat="1">
       <c r="A56" s="43" t="s">
         <v>35</v>
       </c>
@@ -8066,7 +8068,7 @@
       <c r="AC56" s="43"/>
       <c r="AD56" s="43"/>
     </row>
-    <row r="57" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" s="45" customFormat="1">
       <c r="A57" s="43" t="s">
         <v>36</v>
       </c>
@@ -8102,7 +8104,7 @@
       <c r="AC57" s="43"/>
       <c r="AD57" s="43"/>
     </row>
-    <row r="58" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" s="45" customFormat="1">
       <c r="A58" s="43" t="s">
         <v>38</v>
       </c>
@@ -8138,7 +8140,7 @@
       <c r="AC58" s="43"/>
       <c r="AD58" s="43"/>
     </row>
-    <row r="59" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" s="45" customFormat="1">
       <c r="A59" s="43" t="s">
         <v>301</v>
       </c>
@@ -8174,7 +8176,7 @@
       <c r="AC59" s="43"/>
       <c r="AD59" s="43"/>
     </row>
-    <row r="60" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" s="45" customFormat="1">
       <c r="A60" s="43" t="s">
         <v>37</v>
       </c>
@@ -8210,7 +8212,7 @@
       <c r="AC60" s="43"/>
       <c r="AD60" s="43"/>
     </row>
-    <row r="61" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" s="45" customFormat="1">
       <c r="A61" s="43" t="s">
         <v>147</v>
       </c>
@@ -8246,7 +8248,7 @@
       <c r="AC61" s="43"/>
       <c r="AD61" s="43"/>
     </row>
-    <row r="62" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" s="45" customFormat="1">
       <c r="A62" s="43" t="s">
         <v>148</v>
       </c>
@@ -8284,7 +8286,7 @@
       <c r="AC62" s="43"/>
       <c r="AD62" s="43"/>
     </row>
-    <row r="63" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" s="45" customFormat="1">
       <c r="A63" s="43" t="s">
         <v>149</v>
       </c>
@@ -8322,7 +8324,7 @@
       <c r="AC63" s="43"/>
       <c r="AD63" s="43"/>
     </row>
-    <row r="64" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" s="45" customFormat="1">
       <c r="A64" s="43" t="s">
         <v>152</v>
       </c>
@@ -8360,7 +8362,7 @@
       <c r="AC64" s="43"/>
       <c r="AD64" s="43"/>
     </row>
-    <row r="65" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" s="45" customFormat="1">
       <c r="A65" s="43" t="s">
         <v>154</v>
       </c>
@@ -8398,7 +8400,7 @@
       <c r="AC65" s="43"/>
       <c r="AD65" s="43"/>
     </row>
-    <row r="66" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" s="45" customFormat="1">
       <c r="A66" s="43" t="s">
         <v>154</v>
       </c>
@@ -8436,7 +8438,7 @@
       <c r="AC66" s="43"/>
       <c r="AD66" s="43"/>
     </row>
-    <row r="67" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" s="45" customFormat="1">
       <c r="A67" s="43" t="s">
         <v>154</v>
       </c>
@@ -8474,7 +8476,7 @@
       <c r="AC67" s="43"/>
       <c r="AD67" s="43"/>
     </row>
-    <row r="68" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" s="45" customFormat="1">
       <c r="A68" s="43" t="s">
         <v>158</v>
       </c>
@@ -8512,7 +8514,7 @@
       <c r="AC68" s="43"/>
       <c r="AD68" s="43"/>
     </row>
-    <row r="69" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" s="45" customFormat="1">
       <c r="A69" s="43" t="s">
         <v>162</v>
       </c>
@@ -8546,7 +8548,7 @@
       <c r="AC69" s="43"/>
       <c r="AD69" s="43"/>
     </row>
-    <row r="70" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" s="45" customFormat="1">
       <c r="A70" s="43" t="s">
         <v>160</v>
       </c>
@@ -8582,7 +8584,7 @@
       <c r="AC70" s="43"/>
       <c r="AD70" s="43"/>
     </row>
-    <row r="71" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" s="45" customFormat="1">
       <c r="A71" s="43" t="s">
         <v>163</v>
       </c>
@@ -8620,7 +8622,7 @@
       <c r="AC71" s="43"/>
       <c r="AD71" s="43"/>
     </row>
-    <row r="72" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" s="45" customFormat="1">
       <c r="A72" s="43" t="s">
         <v>162</v>
       </c>
@@ -8654,7 +8656,7 @@
       <c r="AC72" s="43"/>
       <c r="AD72" s="43"/>
     </row>
-    <row r="73" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" s="45" customFormat="1">
       <c r="A73" s="43" t="s">
         <v>164</v>
       </c>
@@ -8690,7 +8692,7 @@
       <c r="AC73" s="43"/>
       <c r="AD73" s="43"/>
     </row>
-    <row r="74" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" s="45" customFormat="1">
       <c r="A74" s="43" t="s">
         <v>163</v>
       </c>
@@ -8730,7 +8732,7 @@
       <c r="AC74" s="43"/>
       <c r="AD74" s="43"/>
     </row>
-    <row r="75" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" s="45" customFormat="1">
       <c r="A75" s="43" t="s">
         <v>162</v>
       </c>
@@ -8764,7 +8766,7 @@
       <c r="AC75" s="43"/>
       <c r="AD75" s="43"/>
     </row>
-    <row r="76" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" s="45" customFormat="1">
       <c r="A76" s="43" t="s">
         <v>164</v>
       </c>
@@ -8800,7 +8802,7 @@
       <c r="AC76" s="43"/>
       <c r="AD76" s="43"/>
     </row>
-    <row r="77" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" s="45" customFormat="1">
       <c r="A77" s="43" t="s">
         <v>299</v>
       </c>
@@ -8836,7 +8838,7 @@
       <c r="AC77" s="43"/>
       <c r="AD77" s="43"/>
     </row>
-    <row r="78" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" s="45" customFormat="1">
       <c r="A78" s="43" t="s">
         <v>300</v>
       </c>
@@ -8872,7 +8874,7 @@
       <c r="AC78" s="43"/>
       <c r="AD78" s="43"/>
     </row>
-    <row r="79" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" s="45" customFormat="1">
       <c r="A79" s="43" t="s">
         <v>297</v>
       </c>
@@ -8910,7 +8912,7 @@
       <c r="AC79" s="43"/>
       <c r="AD79" s="43"/>
     </row>
-    <row r="80" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" s="45" customFormat="1">
       <c r="A80" s="43" t="s">
         <v>363</v>
       </c>
@@ -8948,7 +8950,7 @@
       <c r="AC80" s="43"/>
       <c r="AD80" s="43"/>
     </row>
-    <row r="81" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" s="45" customFormat="1">
       <c r="A81" s="43" t="s">
         <v>365</v>
       </c>
@@ -8986,7 +8988,7 @@
       <c r="AC81" s="43"/>
       <c r="AD81" s="43"/>
     </row>
-    <row r="83" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" s="31" customFormat="1">
       <c r="A83" s="60" t="s">
         <v>272</v>
       </c>
@@ -9020,7 +9022,7 @@
       <c r="AC83" s="30"/>
       <c r="AD83" s="30"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30">
       <c r="A85" s="22" t="s">
         <v>168</v>
       </c>
@@ -9034,7 +9036,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30">
       <c r="A86" s="23" t="s">
         <v>172</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30">
       <c r="A87" s="23" t="s">
         <v>175</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30">
       <c r="A88" s="23" t="s">
         <v>177</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30">
       <c r="A89" s="23" t="s">
         <v>180</v>
       </c>
@@ -9091,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30">
       <c r="A90" s="23" t="s">
         <v>183</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30">
       <c r="A91" s="23" t="s">
         <v>186</v>
       </c>
@@ -9119,7 +9121,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30">
       <c r="A92" s="23" t="s">
         <v>190</v>
       </c>
@@ -9133,7 +9135,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30">
       <c r="A93" s="23" t="s">
         <v>193</v>
       </c>
@@ -9147,7 +9149,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30">
       <c r="A94" s="23" t="s">
         <v>196</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30">
       <c r="A95" s="23" t="s">
         <v>199</v>
       </c>
@@ -9175,7 +9177,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30">
       <c r="A96" s="23" t="s">
         <v>202</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="23" t="s">
         <v>205</v>
       </c>
@@ -9203,7 +9205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="23" t="s">
         <v>208</v>
       </c>
@@ -9217,7 +9219,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="23" t="s">
         <v>211</v>
       </c>
@@ -9231,13 +9233,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="25"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="25"/>
       <c r="B101" s="22" t="s">
         <v>215</v>
@@ -9247,7 +9249,7 @@
       </c>
       <c r="D101" s="25"/>
     </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="25"/>
       <c r="B102" s="27" t="s">
         <v>216</v>
@@ -9257,7 +9259,7 @@
       </c>
       <c r="D102" s="25"/>
     </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="25"/>
       <c r="B103" s="28" t="s">
         <v>217</v>
@@ -9267,7 +9269,7 @@
       </c>
       <c r="D103" s="25"/>
     </row>
-    <row r="104" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="31.2">
       <c r="A104" s="25"/>
       <c r="B104" s="28" t="s">
         <v>218</v>
@@ -9277,7 +9279,7 @@
       </c>
       <c r="D104" s="25"/>
     </row>
-    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="25"/>
       <c r="B105" s="28" t="s">
         <v>220</v>
@@ -9287,7 +9289,7 @@
       </c>
       <c r="D105" s="25"/>
     </row>
-    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="25"/>
       <c r="B106" s="28" t="s">
         <v>222</v>
@@ -9297,7 +9299,7 @@
       </c>
       <c r="D106" s="25"/>
     </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="25"/>
       <c r="B107" s="28" t="s">
         <v>224</v>
@@ -9307,7 +9309,7 @@
       </c>
       <c r="D107" s="25"/>
     </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="25"/>
       <c r="B108" s="28" t="s">
         <v>226</v>
@@ -9317,7 +9319,7 @@
       </c>
       <c r="D108" s="25"/>
     </row>
-    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="46.8">
       <c r="A109" s="25"/>
       <c r="B109" s="28" t="s">
         <v>228</v>
@@ -9327,7 +9329,7 @@
       </c>
       <c r="D109" s="25"/>
     </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="25"/>
       <c r="B110" s="28" t="s">
         <v>230</v>
@@ -9337,7 +9339,7 @@
       </c>
       <c r="D110" s="25"/>
     </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="25"/>
       <c r="B111" s="28" t="s">
         <v>319</v>
@@ -9347,7 +9349,7 @@
       </c>
       <c r="D111" s="25"/>
     </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="25"/>
       <c r="B112" s="28" t="s">
         <v>232</v>
@@ -9357,7 +9359,7 @@
       </c>
       <c r="D112" s="25"/>
     </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="25"/>
       <c r="B113" s="28" t="s">
         <v>234</v>
@@ -9367,7 +9369,7 @@
       </c>
       <c r="D113" s="25"/>
     </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="25"/>
       <c r="B114" s="28" t="s">
         <v>236</v>
@@ -9377,7 +9379,7 @@
       </c>
       <c r="D114" s="25"/>
     </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="25"/>
       <c r="B115" s="28" t="s">
         <v>238</v>
@@ -9387,7 +9389,7 @@
       </c>
       <c r="D115" s="25"/>
     </row>
-    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="25"/>
       <c r="B116" s="28" t="s">
         <v>240</v>
@@ -9397,7 +9399,7 @@
       </c>
       <c r="D116" s="25"/>
     </row>
-    <row r="117" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="31.2">
       <c r="A117" s="25"/>
       <c r="B117" s="28" t="s">
         <v>242</v>
@@ -9407,7 +9409,7 @@
       </c>
       <c r="D117" s="25"/>
     </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="25"/>
       <c r="B118" s="28" t="s">
         <v>244</v>
@@ -9417,7 +9419,7 @@
       </c>
       <c r="D118" s="25"/>
     </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="25"/>
       <c r="B119" s="28" t="s">
         <v>246</v>
@@ -9427,7 +9429,7 @@
       </c>
       <c r="D119" s="25"/>
     </row>
-    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="25"/>
       <c r="B120" s="28" t="s">
         <v>248</v>
@@ -9437,7 +9439,7 @@
       </c>
       <c r="D120" s="25"/>
     </row>
-    <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="31.2">
       <c r="A121" s="25"/>
       <c r="B121" s="28" t="s">
         <v>250</v>
@@ -9447,7 +9449,7 @@
       </c>
       <c r="D121" s="25"/>
     </row>
-    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="46.8">
       <c r="A122" s="25"/>
       <c r="B122" s="28" t="s">
         <v>252</v>
@@ -9457,7 +9459,7 @@
       </c>
       <c r="D122" s="25"/>
     </row>
-    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="25"/>
       <c r="B123" s="28" t="s">
         <v>254</v>
@@ -9467,7 +9469,7 @@
       </c>
       <c r="D123" s="25"/>
     </row>
-    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="25"/>
       <c r="B124" s="28" t="s">
         <v>256</v>
@@ -9477,7 +9479,7 @@
       </c>
       <c r="D124" s="25"/>
     </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="25"/>
       <c r="B125" s="28" t="s">
         <v>258</v>
@@ -9487,7 +9489,7 @@
       </c>
       <c r="D125" s="25"/>
     </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="25"/>
       <c r="B126" s="28" t="s">
         <v>260</v>
@@ -9497,7 +9499,7 @@
       </c>
       <c r="D126" s="25"/>
     </row>
-    <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="25"/>
       <c r="B127" s="28" t="s">
         <v>262</v>
@@ -9507,7 +9509,7 @@
       </c>
       <c r="D127" s="25"/>
     </row>
-    <row r="128" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="31.2">
       <c r="A128" s="25"/>
       <c r="B128" s="28" t="s">
         <v>264</v>
@@ -9517,7 +9519,7 @@
       </c>
       <c r="D128" s="25"/>
     </row>
-    <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="25"/>
       <c r="B129" s="29" t="s">
         <v>266</v>
@@ -9527,7 +9529,7 @@
       </c>
       <c r="D129" s="25"/>
     </row>
-    <row r="130" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="31.2">
       <c r="A130" s="25"/>
       <c r="B130" s="29" t="s">
         <v>268</v>
@@ -9537,7 +9539,7 @@
       </c>
       <c r="D130" s="25"/>
     </row>
-    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="25"/>
       <c r="B131" s="29" t="s">
         <v>269</v>
@@ -9547,7 +9549,7 @@
       </c>
       <c r="D131" s="25"/>
     </row>
-    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="25"/>
       <c r="B132" s="29" t="s">
         <v>270</v>
@@ -9557,7 +9559,7 @@
       </c>
       <c r="D132" s="25"/>
     </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="25"/>
       <c r="B133" s="29" t="s">
         <v>271</v>
@@ -9567,7 +9569,7 @@
       </c>
       <c r="D133" s="25"/>
     </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="25"/>
       <c r="B134" s="29" t="s">
         <v>302</v>
@@ -9577,7 +9579,7 @@
       </c>
       <c r="D134" s="25"/>
     </row>
-    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="25"/>
       <c r="B135" s="29" t="s">
         <v>303</v>
@@ -9587,7 +9589,7 @@
       </c>
       <c r="D135" s="25"/>
     </row>
-    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="25"/>
       <c r="B136" s="29" t="s">
         <v>321</v>
@@ -9597,7 +9599,7 @@
       </c>
       <c r="D136" s="25"/>
     </row>
-    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="25"/>
       <c r="B137" s="29" t="s">
         <v>322</v>
@@ -9607,7 +9609,7 @@
       </c>
       <c r="D137" s="25"/>
     </row>
-    <row r="138" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="31.2">
       <c r="A138" s="25"/>
       <c r="B138" s="29" t="s">
         <v>324</v>
@@ -9617,7 +9619,7 @@
       </c>
       <c r="D138" s="25"/>
     </row>
-    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="25"/>
       <c r="B139" s="29" t="s">
         <v>326</v>
@@ -9627,7 +9629,7 @@
       </c>
       <c r="D139" s="25"/>
     </row>
-    <row r="140" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="31.2">
       <c r="A140" s="25"/>
       <c r="B140" s="29" t="s">
         <v>328</v>
@@ -9637,7 +9639,7 @@
       </c>
       <c r="D140" s="25"/>
     </row>
-    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="25"/>
       <c r="B141" s="29" t="s">
         <v>330</v>
@@ -9647,7 +9649,7 @@
       </c>
       <c r="D141" s="25"/>
     </row>
-    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="25"/>
       <c r="B142" s="29" t="s">
         <v>332</v>
@@ -9657,7 +9659,7 @@
       </c>
       <c r="D142" s="25"/>
     </row>
-    <row r="143" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="31.2">
       <c r="A143" s="25"/>
       <c r="B143" s="29" t="s">
         <v>334</v>
@@ -9667,7 +9669,7 @@
       </c>
       <c r="D143" s="25"/>
     </row>
-    <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="25"/>
       <c r="B144" s="29" t="s">
         <v>336</v>
@@ -9677,7 +9679,7 @@
       </c>
       <c r="D144" s="25"/>
     </row>
-    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="25"/>
       <c r="B145" s="29" t="s">
         <v>338</v>
@@ -9687,7 +9689,7 @@
       </c>
       <c r="D145" s="25"/>
     </row>
-    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="25"/>
       <c r="B146" s="29" t="s">
         <v>340</v>
@@ -9697,7 +9699,7 @@
       </c>
       <c r="D146" s="25"/>
     </row>
-    <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="25"/>
       <c r="B147" s="29" t="s">
         <v>342</v>
@@ -9707,7 +9709,7 @@
       </c>
       <c r="D147" s="25"/>
     </row>
-    <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="25"/>
       <c r="B148" s="29" t="s">
         <v>344</v>
@@ -9717,7 +9719,7 @@
       </c>
       <c r="D148" s="25"/>
     </row>
-    <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="25"/>
       <c r="B149" s="29" t="s">
         <v>346</v>
@@ -9727,7 +9729,7 @@
       </c>
       <c r="D149" s="25"/>
     </row>
-    <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="25"/>
       <c r="B150" s="29" t="s">
         <v>348</v>
@@ -9737,7 +9739,7 @@
       </c>
       <c r="D150" s="25"/>
     </row>
-    <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="25"/>
       <c r="B151" s="29" t="s">
         <v>350</v>
@@ -9747,7 +9749,7 @@
       </c>
       <c r="D151" s="25"/>
     </row>
-    <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="25"/>
       <c r="B152" s="29" t="s">
         <v>352</v>
@@ -9757,7 +9759,7 @@
       </c>
       <c r="D152" s="25"/>
     </row>
-    <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="25"/>
       <c r="B153" s="29" t="s">
         <v>354</v>
@@ -9767,7 +9769,7 @@
       </c>
       <c r="D153" s="25"/>
     </row>
-    <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="25"/>
       <c r="B154" s="29" t="s">
         <v>356</v>
@@ -10144,29 +10146,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="54"/>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="33" customFormat="1">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
     </row>
-    <row r="3" spans="1:8" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="33" customFormat="1" ht="99" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="58"/>
     </row>
-    <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="33" customFormat="1"/>
+    <row r="5" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>26</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="221" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="202.8">
       <c r="A6" s="38" t="s">
         <v>56</v>
       </c>
@@ -10232,12 +10234,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="33" customFormat="1">
       <c r="A1" s="62" t="s">
         <v>46</v>
       </c>
@@ -10247,7 +10249,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="33" customFormat="1">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="49"/>
@@ -10255,7 +10257,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:8" s="33" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="33" customFormat="1" ht="55" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>47</v>
       </c>
@@ -10265,7 +10267,7 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="33" customFormat="1">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -10273,7 +10275,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="50" t="s">
         <v>20</v>
       </c>
@@ -10294,7 +10296,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="340" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="296.39999999999998">
       <c r="A6" s="38" t="s">
         <v>48</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -10322,7 +10324,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>

--- a/extras/sample-form/Sample form - Create Google Calendar event field plug-in (basic).xlsx
+++ b/extras/sample-form/Sample form - Create Google Calendar event field plug-in (basic).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\create-google-event\extras\sample-form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acooper/Google Drive/GitHub/create-google-event/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7A7F5-FCCA-4E69-8D21-7DBA28BB1A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB79FD00-3EDA-5D4A-A273-BC5CA412B260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23240" windowHeight="12560" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="help-choices" sheetId="5" r:id="rId5"/>
     <sheet name="help-settings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2597,9 +2597,6 @@
     <t>min=0.25;max=2</t>
   </si>
   <si>
-    <t>Sample form - Create Google Calendar event field plug-in</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -2834,14 +2831,17 @@
 &lt;p&gt;Select &lt;em&gt;Next&lt;/em&gt; to continue.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>google_calendar_plug-in_sample_test</t>
+    <t>Sample form - Create Google Calendar event field plug-in (basic)</t>
+  </si>
+  <si>
+    <t>google_calendar_plug-in_basic_sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -5020,37 +5020,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.84765625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="47.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1484375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6484375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.34765625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6484375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.1484375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.34765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="9" customWidth="1"/>
-    <col min="13" max="13" width="9.1484375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.34765625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="13.1484375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" style="9" customWidth="1"/>
     <col min="16" max="16" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" style="9" customWidth="1"/>
     <col min="20" max="21" width="48" style="9" customWidth="1"/>
-    <col min="22" max="22" width="10.84765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:23" ht="18.75" customHeight="1">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -5149,7 +5149,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>305</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>148</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>301</v>
       </c>
@@ -5212,80 +5212,80 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:23" ht="29.05" customHeight="1">
+    <row r="12" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="31.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="N15" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>438</v>
-      </c>
       <c r="F16" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5441,16 +5441,16 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6484375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="39.6484375" style="15" customWidth="1"/>
-    <col min="4" max="5" width="10.84765625" style="15"/>
-    <col min="6" max="16384" width="10.84765625" style="1"/>
+    <col min="2" max="2" width="19.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="15"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
@@ -5489,395 +5489,395 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="15" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C10" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="B34" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B36" s="15" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B37" s="15" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B38" s="15" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B39" s="15" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C40" s="15" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C42" s="15" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -5909,20 +5909,20 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.5" customWidth="1"/>
-    <col min="2" max="2" width="31.84765625" customWidth="1"/>
-    <col min="3" max="3" width="13.34765625" customWidth="1"/>
+    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -5943,22 +5943,22 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>444</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2007091800</v>
+        <v>2007161408</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>29</v>
@@ -5979,36 +5979,36 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="36" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="36" style="21" customWidth="1" collapsed="1"/>
     <col min="4" max="30" width="36" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="32"/>
     </row>
-    <row r="2" spans="1:30" s="33" customFormat="1">
+    <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:30" s="33" customFormat="1" ht="97" customHeight="1">
+    <row r="3" spans="1:30" s="33" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="33" customFormat="1">
+    <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="39" customFormat="1" ht="187.2">
+    <row r="6" spans="1:30" s="39" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>277</v>
       </c>
@@ -6192,10 +6192,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="33" customFormat="1">
+    <row r="7" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="42" customFormat="1">
+    <row r="8" spans="1:30" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
         <v>276</v>
       </c>
@@ -6229,10 +6229,10 @@
       <c r="AC8" s="41"/>
       <c r="AD8" s="41"/>
     </row>
-    <row r="9" spans="1:30" s="33" customFormat="1">
+    <row r="9" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="45" customFormat="1">
+    <row r="10" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="43" t="s">
         <v>96</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
     </row>
-    <row r="11" spans="1:30" s="45" customFormat="1">
+    <row r="11" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>96</v>
       </c>
@@ -6310,7 +6310,7 @@
       <c r="AC11" s="43"/>
       <c r="AD11" s="43"/>
     </row>
-    <row r="12" spans="1:30" s="45" customFormat="1">
+    <row r="12" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
         <v>100</v>
       </c>
@@ -6348,7 +6348,7 @@
       <c r="AC12" s="43"/>
       <c r="AD12" s="43"/>
     </row>
-    <row r="13" spans="1:30" s="45" customFormat="1">
+    <row r="13" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="s">
         <v>101</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="AC13" s="43"/>
       <c r="AD13" s="43"/>
     </row>
-    <row r="14" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="14" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
         <v>102</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="AC14" s="43"/>
       <c r="AD14" s="43"/>
     </row>
-    <row r="15" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="15" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>102</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="AC15" s="43"/>
       <c r="AD15" s="43"/>
     </row>
-    <row r="16" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="16" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="43" t="s">
         <v>102</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="AC16" s="43"/>
       <c r="AD16" s="43"/>
     </row>
-    <row r="17" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="17" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
         <v>102</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="AC17" s="43"/>
       <c r="AD17" s="43"/>
     </row>
-    <row r="18" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="18" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>102</v>
       </c>
@@ -6584,7 +6584,7 @@
       <c r="AC18" s="43"/>
       <c r="AD18" s="43"/>
     </row>
-    <row r="19" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="19" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="43" t="s">
         <v>102</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="AC19" s="43"/>
       <c r="AD19" s="43"/>
     </row>
-    <row r="20" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="20" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
         <v>102</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="AC20" s="43"/>
       <c r="AD20" s="43"/>
     </row>
-    <row r="21" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="21" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>102</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="AC21" s="43"/>
       <c r="AD21" s="43"/>
     </row>
-    <row r="22" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="22" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>102</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="AC22" s="43"/>
       <c r="AD22" s="43"/>
     </row>
-    <row r="23" spans="1:30" s="45" customFormat="1" ht="78">
+    <row r="23" spans="1:30" s="45" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="43" t="s">
         <v>102</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="AC23" s="43"/>
       <c r="AD23" s="43"/>
     </row>
-    <row r="24" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="24" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="43" t="s">
         <v>102</v>
       </c>
@@ -6824,7 +6824,7 @@
       <c r="AC24" s="43"/>
       <c r="AD24" s="43"/>
     </row>
-    <row r="25" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="25" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="43" t="s">
         <v>102</v>
       </c>
@@ -6864,7 +6864,7 @@
       <c r="AC25" s="43"/>
       <c r="AD25" s="43"/>
     </row>
-    <row r="26" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="26" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>102</v>
       </c>
@@ -6904,7 +6904,7 @@
       <c r="AC26" s="43"/>
       <c r="AD26" s="43"/>
     </row>
-    <row r="27" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="27" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="43" t="s">
         <v>102</v>
       </c>
@@ -6944,7 +6944,7 @@
       <c r="AC27" s="43"/>
       <c r="AD27" s="43"/>
     </row>
-    <row r="28" spans="1:30" s="45" customFormat="1" ht="78">
+    <row r="28" spans="1:30" s="45" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>102</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="AC28" s="43"/>
       <c r="AD28" s="43"/>
     </row>
-    <row r="29" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="29" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>112</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="AC29" s="43"/>
       <c r="AD29" s="43"/>
     </row>
-    <row r="30" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="30" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="43" t="s">
         <v>112</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="AC30" s="43"/>
       <c r="AD30" s="43"/>
     </row>
-    <row r="31" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="31" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="s">
         <v>112</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="AC31" s="43"/>
       <c r="AD31" s="43"/>
     </row>
-    <row r="32" spans="1:30" s="45" customFormat="1" ht="46.8">
+    <row r="32" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>112</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="AC32" s="43"/>
       <c r="AD32" s="43"/>
     </row>
-    <row r="33" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="33" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="43" t="s">
         <v>112</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="AC33" s="43"/>
       <c r="AD33" s="43"/>
     </row>
-    <row r="34" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="34" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="43" t="s">
         <v>112</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="AC34" s="43"/>
       <c r="AD34" s="43"/>
     </row>
-    <row r="35" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="35" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="43" t="s">
         <v>112</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="AC35" s="43"/>
       <c r="AD35" s="43"/>
     </row>
-    <row r="36" spans="1:30" s="45" customFormat="1" ht="62.4">
+    <row r="36" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="43" t="s">
         <v>112</v>
       </c>
@@ -7302,7 +7302,7 @@
       <c r="AC36" s="43"/>
       <c r="AD36" s="43"/>
     </row>
-    <row r="37" spans="1:30" s="45" customFormat="1" ht="78">
+    <row r="37" spans="1:30" s="45" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="43" t="s">
         <v>112</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="AC37" s="43"/>
       <c r="AD37" s="43"/>
     </row>
-    <row r="38" spans="1:30" s="45" customFormat="1">
+    <row r="38" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="43" t="s">
         <v>114</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="AC38" s="43"/>
       <c r="AD38" s="43"/>
     </row>
-    <row r="39" spans="1:30" s="45" customFormat="1">
+    <row r="39" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="43" t="s">
         <v>315</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="AC39" s="43"/>
       <c r="AD39" s="43"/>
     </row>
-    <row r="40" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="40" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="43" t="s">
         <v>317</v>
       </c>
@@ -7456,7 +7456,7 @@
       <c r="AC40" s="43"/>
       <c r="AD40" s="43"/>
     </row>
-    <row r="41" spans="1:30" s="45" customFormat="1">
+    <row r="41" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="43" t="s">
         <v>115</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="AC41" s="43"/>
       <c r="AD41" s="43"/>
     </row>
-    <row r="42" spans="1:30" s="45" customFormat="1">
+    <row r="42" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="43" t="s">
         <v>118</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="AC42" s="43"/>
       <c r="AD42" s="43"/>
     </row>
-    <row r="43" spans="1:30" s="45" customFormat="1">
+    <row r="43" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="43" t="s">
         <v>118</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="AC43" s="43"/>
       <c r="AD43" s="43"/>
     </row>
-    <row r="44" spans="1:30" s="45" customFormat="1">
+    <row r="44" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="43" t="s">
         <v>132</v>
       </c>
@@ -7610,7 +7610,7 @@
       <c r="AC44" s="43"/>
       <c r="AD44" s="43"/>
     </row>
-    <row r="45" spans="1:30" s="45" customFormat="1">
+    <row r="45" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
         <v>132</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="AC45" s="43"/>
       <c r="AD45" s="43"/>
     </row>
-    <row r="46" spans="1:30" s="45" customFormat="1">
+    <row r="46" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="43" t="s">
         <v>27</v>
       </c>
@@ -7688,7 +7688,7 @@
       <c r="AC46" s="43"/>
       <c r="AD46" s="43"/>
     </row>
-    <row r="47" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="47" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
         <v>27</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="AC47" s="43"/>
       <c r="AD47" s="43"/>
     </row>
-    <row r="48" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="48" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="43" t="s">
         <v>27</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="AC48" s="43"/>
       <c r="AD48" s="43"/>
     </row>
-    <row r="49" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="49" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="43" t="s">
         <v>27</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="AC49" s="43"/>
       <c r="AD49" s="43"/>
     </row>
-    <row r="50" spans="1:30" s="45" customFormat="1">
+    <row r="50" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="43" t="s">
         <v>142</v>
       </c>
@@ -7846,7 +7846,7 @@
       <c r="AC50" s="43"/>
       <c r="AD50" s="43"/>
     </row>
-    <row r="51" spans="1:30" s="45" customFormat="1">
+    <row r="51" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="43" t="s">
         <v>144</v>
       </c>
@@ -7884,7 +7884,7 @@
       <c r="AC51" s="43"/>
       <c r="AD51" s="43"/>
     </row>
-    <row r="52" spans="1:30" s="45" customFormat="1" ht="31.2">
+    <row r="52" spans="1:30" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="43" t="s">
         <v>307</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="AC52" s="43"/>
       <c r="AD52" s="43"/>
     </row>
-    <row r="53" spans="1:30" s="45" customFormat="1">
+    <row r="53" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="43" t="s">
         <v>42</v>
       </c>
@@ -7960,7 +7960,7 @@
       <c r="AC53" s="43"/>
       <c r="AD53" s="43"/>
     </row>
-    <row r="54" spans="1:30" s="45" customFormat="1">
+    <row r="54" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="43" t="s">
         <v>33</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="AC54" s="43"/>
       <c r="AD54" s="43"/>
     </row>
-    <row r="55" spans="1:30" s="45" customFormat="1">
+    <row r="55" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="43" t="s">
         <v>34</v>
       </c>
@@ -8032,7 +8032,7 @@
       <c r="AC55" s="43"/>
       <c r="AD55" s="43"/>
     </row>
-    <row r="56" spans="1:30" s="45" customFormat="1">
+    <row r="56" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="43" t="s">
         <v>35</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="AC56" s="43"/>
       <c r="AD56" s="43"/>
     </row>
-    <row r="57" spans="1:30" s="45" customFormat="1">
+    <row r="57" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
         <v>36</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="AC57" s="43"/>
       <c r="AD57" s="43"/>
     </row>
-    <row r="58" spans="1:30" s="45" customFormat="1">
+    <row r="58" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="43" t="s">
         <v>38</v>
       </c>
@@ -8140,7 +8140,7 @@
       <c r="AC58" s="43"/>
       <c r="AD58" s="43"/>
     </row>
-    <row r="59" spans="1:30" s="45" customFormat="1">
+    <row r="59" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="43" t="s">
         <v>301</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="AC59" s="43"/>
       <c r="AD59" s="43"/>
     </row>
-    <row r="60" spans="1:30" s="45" customFormat="1">
+    <row r="60" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="43" t="s">
         <v>37</v>
       </c>
@@ -8212,7 +8212,7 @@
       <c r="AC60" s="43"/>
       <c r="AD60" s="43"/>
     </row>
-    <row r="61" spans="1:30" s="45" customFormat="1">
+    <row r="61" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="43" t="s">
         <v>147</v>
       </c>
@@ -8248,7 +8248,7 @@
       <c r="AC61" s="43"/>
       <c r="AD61" s="43"/>
     </row>
-    <row r="62" spans="1:30" s="45" customFormat="1">
+    <row r="62" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="43" t="s">
         <v>148</v>
       </c>
@@ -8286,7 +8286,7 @@
       <c r="AC62" s="43"/>
       <c r="AD62" s="43"/>
     </row>
-    <row r="63" spans="1:30" s="45" customFormat="1">
+    <row r="63" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
         <v>149</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="AC63" s="43"/>
       <c r="AD63" s="43"/>
     </row>
-    <row r="64" spans="1:30" s="45" customFormat="1">
+    <row r="64" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="43" t="s">
         <v>152</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="AC64" s="43"/>
       <c r="AD64" s="43"/>
     </row>
-    <row r="65" spans="1:30" s="45" customFormat="1">
+    <row r="65" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="43" t="s">
         <v>154</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="AC65" s="43"/>
       <c r="AD65" s="43"/>
     </row>
-    <row r="66" spans="1:30" s="45" customFormat="1">
+    <row r="66" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="43" t="s">
         <v>154</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="AC66" s="43"/>
       <c r="AD66" s="43"/>
     </row>
-    <row r="67" spans="1:30" s="45" customFormat="1">
+    <row r="67" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="43" t="s">
         <v>154</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="AC67" s="43"/>
       <c r="AD67" s="43"/>
     </row>
-    <row r="68" spans="1:30" s="45" customFormat="1">
+    <row r="68" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="43" t="s">
         <v>158</v>
       </c>
@@ -8514,7 +8514,7 @@
       <c r="AC68" s="43"/>
       <c r="AD68" s="43"/>
     </row>
-    <row r="69" spans="1:30" s="45" customFormat="1">
+    <row r="69" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="43" t="s">
         <v>162</v>
       </c>
@@ -8548,7 +8548,7 @@
       <c r="AC69" s="43"/>
       <c r="AD69" s="43"/>
     </row>
-    <row r="70" spans="1:30" s="45" customFormat="1">
+    <row r="70" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="43" t="s">
         <v>160</v>
       </c>
@@ -8584,7 +8584,7 @@
       <c r="AC70" s="43"/>
       <c r="AD70" s="43"/>
     </row>
-    <row r="71" spans="1:30" s="45" customFormat="1">
+    <row r="71" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="43" t="s">
         <v>163</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="AC71" s="43"/>
       <c r="AD71" s="43"/>
     </row>
-    <row r="72" spans="1:30" s="45" customFormat="1">
+    <row r="72" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="43" t="s">
         <v>162</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="AC72" s="43"/>
       <c r="AD72" s="43"/>
     </row>
-    <row r="73" spans="1:30" s="45" customFormat="1">
+    <row r="73" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="43" t="s">
         <v>164</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="AC73" s="43"/>
       <c r="AD73" s="43"/>
     </row>
-    <row r="74" spans="1:30" s="45" customFormat="1">
+    <row r="74" spans="1:30" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="43" t="s">
         <v>163</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="AC74" s="43"/>
       <c r="AD74" s="43"/>
     </row>
-    <row r="75" spans="1:30" s="45" customFormat="1">
+    <row r="75" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="43" t="s">
         <v>162</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="AC75" s="43"/>
       <c r="AD75" s="43"/>
     </row>
-    <row r="76" spans="1:30" s="45" customFormat="1">
+    <row r="76" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="43" t="s">
         <v>164</v>
       </c>
@@ -8802,7 +8802,7 @@
       <c r="AC76" s="43"/>
       <c r="AD76" s="43"/>
     </row>
-    <row r="77" spans="1:30" s="45" customFormat="1">
+    <row r="77" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="43" t="s">
         <v>299</v>
       </c>
@@ -8838,7 +8838,7 @@
       <c r="AC77" s="43"/>
       <c r="AD77" s="43"/>
     </row>
-    <row r="78" spans="1:30" s="45" customFormat="1">
+    <row r="78" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="43" t="s">
         <v>300</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="AC78" s="43"/>
       <c r="AD78" s="43"/>
     </row>
-    <row r="79" spans="1:30" s="45" customFormat="1">
+    <row r="79" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="43" t="s">
         <v>297</v>
       </c>
@@ -8912,7 +8912,7 @@
       <c r="AC79" s="43"/>
       <c r="AD79" s="43"/>
     </row>
-    <row r="80" spans="1:30" s="45" customFormat="1">
+    <row r="80" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="43" t="s">
         <v>363</v>
       </c>
@@ -8950,7 +8950,7 @@
       <c r="AC80" s="43"/>
       <c r="AD80" s="43"/>
     </row>
-    <row r="81" spans="1:30" s="45" customFormat="1">
+    <row r="81" spans="1:30" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="43" t="s">
         <v>365</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="AC81" s="43"/>
       <c r="AD81" s="43"/>
     </row>
-    <row r="83" spans="1:30" s="31" customFormat="1">
+    <row r="83" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="60" t="s">
         <v>272</v>
       </c>
@@ -9022,7 +9022,7 @@
       <c r="AC83" s="30"/>
       <c r="AD83" s="30"/>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>168</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>172</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:30">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>175</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>177</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:30">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>180</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>183</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>186</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>190</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:30">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>193</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:30">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>196</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:30">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>199</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:30">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>202</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>205</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
         <v>208</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
         <v>211</v>
       </c>
@@ -9233,13 +9233,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="25"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="25"/>
       <c r="B101" s="22" t="s">
         <v>215</v>
@@ -9249,7 +9249,7 @@
       </c>
       <c r="D101" s="25"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="25"/>
       <c r="B102" s="27" t="s">
         <v>216</v>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="D102" s="25"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="25"/>
       <c r="B103" s="28" t="s">
         <v>217</v>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="D103" s="25"/>
     </row>
-    <row r="104" spans="1:4" ht="31.2">
+    <row r="104" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="25"/>
       <c r="B104" s="28" t="s">
         <v>218</v>
@@ -9279,7 +9279,7 @@
       </c>
       <c r="D104" s="25"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="25"/>
       <c r="B105" s="28" t="s">
         <v>220</v>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="D105" s="25"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="25"/>
       <c r="B106" s="28" t="s">
         <v>222</v>
@@ -9299,7 +9299,7 @@
       </c>
       <c r="D106" s="25"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="25"/>
       <c r="B107" s="28" t="s">
         <v>224</v>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="D107" s="25"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="25"/>
       <c r="B108" s="28" t="s">
         <v>226</v>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="D108" s="25"/>
     </row>
-    <row r="109" spans="1:4" ht="46.8">
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A109" s="25"/>
       <c r="B109" s="28" t="s">
         <v>228</v>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="D109" s="25"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="25"/>
       <c r="B110" s="28" t="s">
         <v>230</v>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D110" s="25"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="25"/>
       <c r="B111" s="28" t="s">
         <v>319</v>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="D111" s="25"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="25"/>
       <c r="B112" s="28" t="s">
         <v>232</v>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="D112" s="25"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="25"/>
       <c r="B113" s="28" t="s">
         <v>234</v>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="D113" s="25"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="25"/>
       <c r="B114" s="28" t="s">
         <v>236</v>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D114" s="25"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="25"/>
       <c r="B115" s="28" t="s">
         <v>238</v>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="D115" s="25"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="25"/>
       <c r="B116" s="28" t="s">
         <v>240</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D116" s="25"/>
     </row>
-    <row r="117" spans="1:4" ht="31.2">
+    <row r="117" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A117" s="25"/>
       <c r="B117" s="28" t="s">
         <v>242</v>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="D117" s="25"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="25"/>
       <c r="B118" s="28" t="s">
         <v>244</v>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="D118" s="25"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="25"/>
       <c r="B119" s="28" t="s">
         <v>246</v>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="D119" s="25"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="25"/>
       <c r="B120" s="28" t="s">
         <v>248</v>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="D120" s="25"/>
     </row>
-    <row r="121" spans="1:4" ht="31.2">
+    <row r="121" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A121" s="25"/>
       <c r="B121" s="28" t="s">
         <v>250</v>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D121" s="25"/>
     </row>
-    <row r="122" spans="1:4" ht="46.8">
+    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="25"/>
       <c r="B122" s="28" t="s">
         <v>252</v>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="D122" s="25"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="25"/>
       <c r="B123" s="28" t="s">
         <v>254</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="D123" s="25"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="25"/>
       <c r="B124" s="28" t="s">
         <v>256</v>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="D124" s="25"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="25"/>
       <c r="B125" s="28" t="s">
         <v>258</v>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="D125" s="25"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
       <c r="B126" s="28" t="s">
         <v>260</v>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="D126" s="25"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
       <c r="B127" s="28" t="s">
         <v>262</v>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="D127" s="25"/>
     </row>
-    <row r="128" spans="1:4" ht="31.2">
+    <row r="128" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
       <c r="B128" s="28" t="s">
         <v>264</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="D128" s="25"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
       <c r="B129" s="29" t="s">
         <v>266</v>
@@ -9529,7 +9529,7 @@
       </c>
       <c r="D129" s="25"/>
     </row>
-    <row r="130" spans="1:4" ht="31.2">
+    <row r="130" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
       <c r="B130" s="29" t="s">
         <v>268</v>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="D130" s="25"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
       <c r="B131" s="29" t="s">
         <v>269</v>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="D131" s="25"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
       <c r="B132" s="29" t="s">
         <v>270</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D132" s="25"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
       <c r="B133" s="29" t="s">
         <v>271</v>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="D133" s="25"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
       <c r="B134" s="29" t="s">
         <v>302</v>
@@ -9579,7 +9579,7 @@
       </c>
       <c r="D134" s="25"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
       <c r="B135" s="29" t="s">
         <v>303</v>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="D135" s="25"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
       <c r="B136" s="29" t="s">
         <v>321</v>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="D136" s="25"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
       <c r="B137" s="29" t="s">
         <v>322</v>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="D137" s="25"/>
     </row>
-    <row r="138" spans="1:4" ht="31.2">
+    <row r="138" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
       <c r="B138" s="29" t="s">
         <v>324</v>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="D138" s="25"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
       <c r="B139" s="29" t="s">
         <v>326</v>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="D139" s="25"/>
     </row>
-    <row r="140" spans="1:4" ht="31.2">
+    <row r="140" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="25"/>
       <c r="B140" s="29" t="s">
         <v>328</v>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="D140" s="25"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="25"/>
       <c r="B141" s="29" t="s">
         <v>330</v>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="D141" s="25"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="25"/>
       <c r="B142" s="29" t="s">
         <v>332</v>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D142" s="25"/>
     </row>
-    <row r="143" spans="1:4" ht="31.2">
+    <row r="143" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A143" s="25"/>
       <c r="B143" s="29" t="s">
         <v>334</v>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="D143" s="25"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="25"/>
       <c r="B144" s="29" t="s">
         <v>336</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="D144" s="25"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="25"/>
       <c r="B145" s="29" t="s">
         <v>338</v>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="D145" s="25"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="25"/>
       <c r="B146" s="29" t="s">
         <v>340</v>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="D146" s="25"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="25"/>
       <c r="B147" s="29" t="s">
         <v>342</v>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D147" s="25"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="25"/>
       <c r="B148" s="29" t="s">
         <v>344</v>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="D148" s="25"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="25"/>
       <c r="B149" s="29" t="s">
         <v>346</v>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="D149" s="25"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="25"/>
       <c r="B150" s="29" t="s">
         <v>348</v>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="D150" s="25"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="25"/>
       <c r="B151" s="29" t="s">
         <v>350</v>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="D151" s="25"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="25"/>
       <c r="B152" s="29" t="s">
         <v>352</v>
@@ -9759,7 +9759,7 @@
       </c>
       <c r="D152" s="25"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="25"/>
       <c r="B153" s="29" t="s">
         <v>354</v>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="D153" s="25"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="25"/>
       <c r="B154" s="29" t="s">
         <v>356</v>
@@ -10146,29 +10146,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="54"/>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1">
+    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
     </row>
-    <row r="3" spans="1:8" s="33" customFormat="1" ht="99" customHeight="1">
+    <row r="3" spans="1:8" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="58"/>
     </row>
-    <row r="4" spans="1:8" s="33" customFormat="1"/>
-    <row r="5" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>26</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="202.8">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="221" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>56</v>
       </c>
@@ -10234,12 +10234,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1">
+    <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
         <v>46</v>
       </c>
@@ -10249,7 +10249,7 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
-    <row r="2" spans="1:8" s="33" customFormat="1">
+    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="55"/>
       <c r="B2" s="56"/>
       <c r="C2" s="49"/>
@@ -10257,7 +10257,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:8" s="33" customFormat="1" ht="55" customHeight="1">
+    <row r="3" spans="1:8" s="33" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="57" t="s">
         <v>47</v>
       </c>
@@ -10267,7 +10267,7 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:8" s="33" customFormat="1">
+    <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -10275,7 +10275,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1">
+    <row r="5" spans="1:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>20</v>
       </c>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="296.39999999999998">
+    <row r="6" spans="1:8" s="39" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>48</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -10324,7 +10324,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
